--- a/Lab 4/BlackBodyRadiation/5VOLTS_117°.xlsx
+++ b/Lab 4/BlackBodyRadiation/5VOLTS_117°.xlsx
@@ -19,7 +19,7 @@
     <t>Intensidad relativa (%)</t>
   </si>
   <si>
-    <t>ángulo (rad)</t>
+    <t>ángulo (grad)</t>
   </si>
   <si>
     <t>53,29</t>

--- a/Lab 4/BlackBodyRadiation/5VOLTS_117°.xlsx
+++ b/Lab 4/BlackBodyRadiation/5VOLTS_117°.xlsx
@@ -19,7 +19,7 @@
     <t>Intensidad relativa (%)</t>
   </si>
   <si>
-    <t>ángulo (grad)</t>
+    <t>Angulo (grad)</t>
   </si>
   <si>
     <t>53,29</t>
